--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220510_110202.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220510_110202.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="256">
   <si>
     <t>사이트</t>
   </si>
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-05-10</t>
@@ -3712,6 +3712,12 @@
       <c r="F99" t="s">
         <v>220</v>
       </c>
+      <c r="G99" t="s">
+        <v>245</v>
+      </c>
+      <c r="H99" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220510_110202.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220510_110202.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="255">
   <si>
     <t>사이트</t>
   </si>
@@ -728,9 +728,6 @@
   </si>
   <si>
     <t>SSK</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>SONY MUSIC</t>
@@ -2153,7 +2150,7 @@
         <v>183</v>
       </c>
       <c r="G39" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H39" t="s">
         <v>231</v>
@@ -2179,7 +2176,7 @@
         <v>184</v>
       </c>
       <c r="G40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H40" t="s">
         <v>231</v>
@@ -2231,7 +2228,7 @@
         <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H42" t="s">
         <v>231</v>
@@ -2257,7 +2254,7 @@
         <v>185</v>
       </c>
       <c r="G43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H43" t="s">
         <v>231</v>
@@ -2387,7 +2384,7 @@
         <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H48" t="s">
         <v>231</v>
@@ -2439,7 +2436,7 @@
         <v>188</v>
       </c>
       <c r="G50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H50" t="s">
         <v>231</v>
@@ -2465,7 +2462,7 @@
         <v>59</v>
       </c>
       <c r="G51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H51" t="s">
         <v>231</v>
@@ -2491,7 +2488,7 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H52" t="s">
         <v>231</v>
@@ -2517,10 +2514,10 @@
         <v>189</v>
       </c>
       <c r="G53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2595,7 +2592,7 @@
         <v>190</v>
       </c>
       <c r="G56" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H56" t="s">
         <v>231</v>
@@ -2647,7 +2644,7 @@
         <v>66</v>
       </c>
       <c r="G58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H58" t="s">
         <v>231</v>
@@ -2673,7 +2670,7 @@
         <v>67</v>
       </c>
       <c r="G59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H59" t="s">
         <v>231</v>
@@ -2725,10 +2722,10 @@
         <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2881,7 +2878,7 @@
         <v>196</v>
       </c>
       <c r="G67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H67" t="s">
         <v>231</v>
@@ -2985,7 +2982,7 @@
         <v>198</v>
       </c>
       <c r="G71" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H71" t="s">
         <v>231</v>
@@ -3011,7 +3008,7 @@
         <v>199</v>
       </c>
       <c r="G72" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H72" t="s">
         <v>231</v>
@@ -3089,7 +3086,7 @@
         <v>202</v>
       </c>
       <c r="G75" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H75" t="s">
         <v>231</v>
@@ -3115,7 +3112,7 @@
         <v>203</v>
       </c>
       <c r="G76" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H76" t="s">
         <v>231</v>
@@ -3193,10 +3190,10 @@
         <v>205</v>
       </c>
       <c r="G79" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H79" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3245,7 +3242,7 @@
         <v>207</v>
       </c>
       <c r="G81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H81" t="s">
         <v>231</v>
@@ -3271,7 +3268,7 @@
         <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H82" t="s">
         <v>231</v>
@@ -3297,7 +3294,7 @@
         <v>208</v>
       </c>
       <c r="G83" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H83" t="s">
         <v>231</v>
@@ -3401,7 +3398,7 @@
         <v>212</v>
       </c>
       <c r="G87" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H87" t="s">
         <v>231</v>
@@ -3557,7 +3554,7 @@
         <v>216</v>
       </c>
       <c r="G93" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H93" t="s">
         <v>231</v>
@@ -3609,7 +3606,7 @@
         <v>187</v>
       </c>
       <c r="G95" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H95" t="s">
         <v>231</v>
@@ -3713,10 +3710,10 @@
         <v>220</v>
       </c>
       <c r="G99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3739,7 +3736,7 @@
         <v>221</v>
       </c>
       <c r="G100" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H100" t="s">
         <v>231</v>
